--- a/tables/mean_difference_adjusted.xlsx
+++ b/tables/mean_difference_adjusted.xlsx
@@ -422,10 +422,10 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>3.28</v>
+        <v>-1.15</v>
       </c>
       <c r="D2" t="n">
-        <v>1.97</v>
+        <v>1.79</v>
       </c>
       <c r="E2"/>
       <c r="F2"/>
@@ -437,10 +437,10 @@
         <v>5</v>
       </c>
       <c r="J2" t="n">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="K2" t="n">
-        <v>72</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3">
@@ -451,11 +451,11 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>-4.93</v>
+        <v>0.86</v>
       </c>
       <c r="D3"/>
       <c r="E3" t="n">
-        <v>0.248</v>
+        <v>0.282</v>
       </c>
       <c r="F3"/>
       <c r="G3"/>
@@ -466,10 +466,10 @@
         <v>1</v>
       </c>
       <c r="J3" t="n">
-        <v>11</v>
+        <v>82</v>
       </c>
       <c r="K3" t="n">
-        <v>9</v>
+        <v>112</v>
       </c>
     </row>
     <row r="4">
@@ -480,15 +480,15 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>-3.46</v>
+        <v>2.81</v>
       </c>
       <c r="D4"/>
       <c r="E4"/>
       <c r="F4" t="n">
-        <v>-3.96</v>
+        <v>2.31</v>
       </c>
       <c r="G4" t="n">
-        <v>-2.96</v>
+        <v>3.31</v>
       </c>
       <c r="H4" t="n">
         <v>0.22</v>
@@ -497,10 +497,10 @@
         <v>4</v>
       </c>
       <c r="J4" t="n">
-        <v>12</v>
+        <v>62</v>
       </c>
       <c r="K4" t="n">
-        <v>-5</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>

--- a/tables/mean_difference_adjusted.xlsx
+++ b/tables/mean_difference_adjusted.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t xml:space="preserve">all_info_expected</t>
   </si>
@@ -20,6 +20,12 @@
     <t xml:space="preserve">study_id</t>
   </si>
   <si>
+    <t xml:space="preserve">natural_es</t>
+  </si>
+  <si>
+    <t xml:space="preserve">converted_es</t>
+  </si>
+  <si>
     <t xml:space="preserve">ancova_md</t>
   </si>
   <si>
@@ -45,6 +51,12 @@
   </si>
   <si>
     <t xml:space="preserve">n_nexp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D+G+MD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OR+R+Z</t>
   </si>
   <si>
     <t xml:space="preserve">ancova_md_ci</t>
@@ -413,94 +425,118 @@
       <c r="K1" t="s">
         <v>10</v>
       </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
       </c>
-      <c r="C2" t="n">
-        <v>-1.15</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1.79</v>
-      </c>
-      <c r="E2"/>
-      <c r="F2"/>
+      <c r="C2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="F2" t="n">
+        <v>2.75</v>
+      </c>
       <c r="G2"/>
-      <c r="H2" t="n">
+      <c r="H2"/>
+      <c r="I2"/>
+      <c r="J2" t="n">
         <v>0.3</v>
       </c>
-      <c r="I2" t="n">
+      <c r="K2" t="n">
         <v>5</v>
       </c>
-      <c r="J2" t="n">
-        <v>31</v>
-      </c>
-      <c r="K2" t="n">
-        <v>18</v>
+      <c r="L2" t="n">
+        <v>27</v>
+      </c>
+      <c r="M2" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B3" t="n">
         <v>2</v>
       </c>
-      <c r="C3" t="n">
-        <v>0.86</v>
-      </c>
-      <c r="D3"/>
+      <c r="C3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" t="s">
+        <v>14</v>
+      </c>
       <c r="E3" t="n">
-        <v>0.282</v>
+        <v>-3.63</v>
       </c>
       <c r="F3"/>
-      <c r="G3"/>
-      <c r="H3" t="n">
+      <c r="G3" t="n">
+        <v>0.298</v>
+      </c>
+      <c r="H3"/>
+      <c r="I3"/>
+      <c r="J3" t="n">
         <v>0.07</v>
       </c>
-      <c r="I3" t="n">
+      <c r="K3" t="n">
         <v>1</v>
       </c>
-      <c r="J3" t="n">
-        <v>82</v>
-      </c>
-      <c r="K3" t="n">
-        <v>112</v>
+      <c r="L3" t="n">
+        <v>63</v>
+      </c>
+      <c r="M3" t="n">
+        <v>76</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B4" t="n">
         <v>3</v>
       </c>
-      <c r="C4" t="n">
-        <v>2.81</v>
-      </c>
-      <c r="D4"/>
-      <c r="E4"/>
-      <c r="F4" t="n">
-        <v>2.31</v>
-      </c>
-      <c r="G4" t="n">
-        <v>3.31</v>
-      </c>
+      <c r="C4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="F4"/>
+      <c r="G4"/>
       <c r="H4" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="I4" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="J4" t="n">
         <v>0.22</v>
       </c>
-      <c r="I4" t="n">
+      <c r="K4" t="n">
         <v>4</v>
       </c>
-      <c r="J4" t="n">
-        <v>62</v>
-      </c>
-      <c r="K4" t="n">
-        <v>75</v>
+      <c r="L4" t="n">
+        <v>61</v>
+      </c>
+      <c r="M4" t="n">
+        <v>51</v>
       </c>
     </row>
   </sheetData>

--- a/tables/mean_difference_adjusted.xlsx
+++ b/tables/mean_difference_adjusted.xlsx
@@ -446,10 +446,10 @@
         <v>14</v>
       </c>
       <c r="E2" t="n">
-        <v>0.58</v>
+        <v>-1.88</v>
       </c>
       <c r="F2" t="n">
-        <v>2.75</v>
+        <v>2.54</v>
       </c>
       <c r="G2"/>
       <c r="H2"/>
@@ -461,10 +461,10 @@
         <v>5</v>
       </c>
       <c r="L2" t="n">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="M2" t="n">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3">
@@ -481,11 +481,11 @@
         <v>14</v>
       </c>
       <c r="E3" t="n">
-        <v>-3.63</v>
+        <v>-4.28</v>
       </c>
       <c r="F3"/>
       <c r="G3" t="n">
-        <v>0.298</v>
+        <v>0.338</v>
       </c>
       <c r="H3"/>
       <c r="I3"/>
@@ -496,10 +496,10 @@
         <v>1</v>
       </c>
       <c r="L3" t="n">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="M3" t="n">
-        <v>76</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4">
@@ -516,15 +516,15 @@
         <v>14</v>
       </c>
       <c r="E4" t="n">
-        <v>0.83</v>
+        <v>0.48</v>
       </c>
       <c r="F4"/>
       <c r="G4"/>
       <c r="H4" t="n">
-        <v>0.33</v>
+        <v>-0.02</v>
       </c>
       <c r="I4" t="n">
-        <v>1.33</v>
+        <v>0.98</v>
       </c>
       <c r="J4" t="n">
         <v>0.22</v>
@@ -533,10 +533,10 @@
         <v>4</v>
       </c>
       <c r="L4" t="n">
-        <v>61</v>
+        <v>96</v>
       </c>
       <c r="M4" t="n">
-        <v>51</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>

--- a/tables/mean_difference_adjusted.xlsx
+++ b/tables/mean_difference_adjusted.xlsx
@@ -446,10 +446,10 @@
         <v>14</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.88</v>
+        <v>-3.9</v>
       </c>
       <c r="F2" t="n">
-        <v>2.54</v>
+        <v>1.37</v>
       </c>
       <c r="G2"/>
       <c r="H2"/>
@@ -461,10 +461,10 @@
         <v>5</v>
       </c>
       <c r="L2" t="n">
-        <v>20</v>
+        <v>91</v>
       </c>
       <c r="M2" t="n">
-        <v>25</v>
+        <v>93</v>
       </c>
     </row>
     <row r="3">
@@ -481,11 +481,11 @@
         <v>14</v>
       </c>
       <c r="E3" t="n">
-        <v>-4.28</v>
+        <v>0.54</v>
       </c>
       <c r="F3"/>
       <c r="G3" t="n">
-        <v>0.338</v>
+        <v>0.296</v>
       </c>
       <c r="H3"/>
       <c r="I3"/>
@@ -496,10 +496,10 @@
         <v>1</v>
       </c>
       <c r="L3" t="n">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="M3" t="n">
-        <v>39</v>
+        <v>77</v>
       </c>
     </row>
     <row r="4">
@@ -516,15 +516,15 @@
         <v>14</v>
       </c>
       <c r="E4" t="n">
-        <v>0.48</v>
+        <v>-2.5</v>
       </c>
       <c r="F4"/>
       <c r="G4"/>
       <c r="H4" t="n">
-        <v>-0.02</v>
+        <v>-3</v>
       </c>
       <c r="I4" t="n">
-        <v>0.98</v>
+        <v>-2</v>
       </c>
       <c r="J4" t="n">
         <v>0.22</v>
@@ -533,10 +533,10 @@
         <v>4</v>
       </c>
       <c r="L4" t="n">
-        <v>96</v>
+        <v>11</v>
       </c>
       <c r="M4" t="n">
-        <v>78</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
